--- a/系统/系统问题.xlsx
+++ b/系统/系统问题.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="131">
   <si>
     <t>保证金退回申请页面，收款人要可以修改，收款开户行取客户银行信息的开会行全称</t>
   </si>
@@ -49,10 +49,6 @@
   </si>
   <si>
     <t>修改了查询发起人的sql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件发送有时流程发起人是空值：把发起流程后发邮件的那段代码找出来看看，有个bug，有时候发送的邮件没有发起人名称，是空的，看看是什么原因导致的，我猜是发起流程的代码还没有跑完就开始跑发邮件的代码了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -520,6 +516,32 @@
   </si>
   <si>
     <t>开票时咨询服务类的业务类型显示咨询服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临港二期收款开户行信息变动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出差、请假申请流程图，判断节点再优化一下，对于一人分饰两层角色（如即是部门经理，又是分管领导），
+在出差及请假申请中，若时间短于2天，就会出现自己提交申请，自己审批完，流程就结束了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件发送有时流程发起人是空值：把发起流程后发邮件的那段代码找出来看看，有个bug，有时候发送的邮件没有发起人名称，
+是空的，看看是什么原因导致的，我猜是发起流程的代码还没有跑完就开始跑发邮件的代码了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OVER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -643,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -686,53 +708,26 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -1034,86 +1029,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="255.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="144.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="18.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="9.109375" style="1"/>
-    <col min="10" max="10" width="13.33203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="170.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="25.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="255.44140625" style="1"/>
+    <col min="10" max="11" width="255.44140625" style="2"/>
+    <col min="12" max="16384" width="255.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>98</v>
+      <c r="A2" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="8">
-        <v>42683</v>
+        <v>42688</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>99</v>
+      <c r="A3" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="8">
-        <v>42683</v>
+        <v>42688</v>
       </c>
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>100</v>
+      <c r="A4" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="8">
-        <v>42683</v>
-      </c>
+        <v>42688</v>
+      </c>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="8">
         <v>42683</v>
@@ -1121,132 +1116,142 @@
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>109</v>
+      <c r="A6" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="8">
-        <v>42688</v>
+        <v>42683</v>
       </c>
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>111</v>
+      <c r="A7" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="8">
-        <v>42688</v>
+        <v>42683</v>
       </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>112</v>
+      <c r="A8" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" s="8">
-        <v>42688</v>
+        <v>42683</v>
       </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
+      <c r="C9" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="8">
+        <v>42692</v>
+      </c>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>75</v>
+    <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D10" s="8">
-        <v>42677</v>
+        <v>42692</v>
       </c>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>68</v>
+    <row r="11" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="D11" s="8">
-        <v>42677</v>
+        <v>42695</v>
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+    <row r="12" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="8">
+        <v>42695</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="8">
+        <v>42692</v>
+      </c>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="8">
+        <v>42692</v>
+      </c>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
         <v>121</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="22">
-        <v>42692</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="22">
-        <v>42692</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="22">
-        <v>42692</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>91</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D15" s="8">
-        <v>42683</v>
+        <v>42692</v>
       </c>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
-        <v>92</v>
+    <row r="16" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>90</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D16" s="8">
         <v>42683</v>
@@ -1254,134 +1259,130 @@
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>72</v>
+      <c r="A17" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="D17" s="8">
-        <v>42672</v>
+        <v>42683</v>
       </c>
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>65</v>
+      <c r="A18" s="21" t="s">
+        <v>71</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="8">
+        <v>42672</v>
+      </c>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="8">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="8">
         <v>42677</v>
       </c>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="7" t="s">
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="8">
+        <v>42669</v>
+      </c>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="8">
-        <v>42668</v>
-      </c>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="B21" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="C21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="8">
+        <v>42668</v>
+      </c>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="8">
-        <v>42668</v>
-      </c>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="B22" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="C22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="8">
+        <v>42668</v>
+      </c>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="8">
-        <v>42668</v>
-      </c>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="B23" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="8">
-        <v>42669</v>
-      </c>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="C23" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="D23" s="8">
+        <v>42668</v>
+      </c>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="8">
         <v>42671</v>
-      </c>
-      <c r="E23" s="8">
-        <v>42675</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="8">
-        <v>42668</v>
       </c>
       <c r="E24" s="8">
         <v>42675</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
-        <v>51</v>
+      <c r="A25" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" s="8">
         <v>42670</v>
@@ -1391,64 +1392,64 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
-        <v>87</v>
+      <c r="A26" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D26" s="8">
         <v>42668</v>
       </c>
       <c r="E26" s="8">
-        <v>42668</v>
+        <v>42675</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="C27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="8">
+        <v>42668</v>
+      </c>
+      <c r="E27" s="8">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="8">
-        <v>42668</v>
-      </c>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>77</v>
-      </c>
       <c r="B28" s="7" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="D28" s="8">
-        <v>42670</v>
-      </c>
-      <c r="E28" s="8">
-        <v>42691</v>
-      </c>
+        <v>42668</v>
+      </c>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D29" s="8">
-        <v>42677</v>
+        <v>42683</v>
       </c>
       <c r="E29" s="8">
         <v>42691</v>
@@ -1456,14 +1457,14 @@
     </row>
     <row r="30" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D30" s="8">
-        <v>42683</v>
+        <v>42677</v>
       </c>
       <c r="E30" s="8">
         <v>42691</v>
@@ -1471,11 +1472,11 @@
     </row>
     <row r="31" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D31" s="8">
         <v>42677</v>
@@ -1486,28 +1487,30 @@
     </row>
     <row r="32" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="D32" s="8">
-        <v>42668</v>
+        <v>42670</v>
       </c>
       <c r="E32" s="8">
-        <v>42690</v>
+        <v>42691</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="C33" s="7" t="s">
-        <v>113</v>
+        <v>5</v>
       </c>
       <c r="D33" s="8">
         <v>42668</v>
@@ -1518,17 +1521,17 @@
     </row>
     <row r="34" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D34" s="8">
-        <v>42677</v>
+        <v>42668</v>
       </c>
       <c r="E34" s="8">
-        <v>42688</v>
+        <v>42690</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -1537,7 +1540,7 @@
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8">
         <v>42678</v>
@@ -1548,11 +1551,11 @@
     </row>
     <row r="36" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8">
         <v>42678</v>
@@ -1563,14 +1566,14 @@
     </row>
     <row r="37" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8">
-        <v>42675</v>
+        <v>42677</v>
       </c>
       <c r="E37" s="8">
         <v>42688</v>
@@ -1578,14 +1581,14 @@
     </row>
     <row r="38" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8">
-        <v>42676</v>
+        <v>42677</v>
       </c>
       <c r="E38" s="8">
         <v>42688</v>
@@ -1593,14 +1596,14 @@
     </row>
     <row r="39" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8">
-        <v>42677</v>
+        <v>42676</v>
       </c>
       <c r="E39" s="8">
         <v>42688</v>
@@ -1608,11 +1611,11 @@
     </row>
     <row r="40" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D40" s="8">
         <v>42676</v>
@@ -1623,28 +1626,26 @@
     </row>
     <row r="41" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>80</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B41" s="7"/>
       <c r="C41" s="7" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="D41" s="8">
-        <v>42668</v>
+        <v>42675</v>
       </c>
       <c r="E41" s="8">
-        <v>42683</v>
+        <v>42688</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D42" s="8">
         <v>42683</v>
@@ -1655,11 +1656,11 @@
     </row>
     <row r="43" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D43" s="8">
         <v>42677</v>
@@ -1670,29 +1671,31 @@
     </row>
     <row r="44" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B44" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="C44" s="7" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="D44" s="8">
-        <v>42681</v>
+        <v>42668</v>
       </c>
       <c r="E44" s="8">
-        <v>42681</v>
+        <v>42683</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D45" s="8">
-        <v>42677</v>
+        <v>42681</v>
       </c>
       <c r="E45" s="8">
         <v>42681</v>
@@ -1700,27 +1703,25 @@
     </row>
     <row r="46" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>44</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B46" s="7"/>
       <c r="C46" s="7" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="D46" s="8">
-        <v>42678</v>
+        <v>42677</v>
       </c>
       <c r="E46" s="8">
-        <v>42678</v>
+        <v>42681</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>5</v>
@@ -1734,10 +1735,10 @@
     </row>
     <row r="48" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>5</v>
@@ -1751,9 +1752,11 @@
     </row>
     <row r="49" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="7"/>
       <c r="C49" s="7" t="s">
         <v>5</v>
       </c>
@@ -1768,25 +1771,23 @@
       <c r="A50" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="B50" s="7"/>
       <c r="C50" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="8">
-        <v>42676</v>
+        <v>42678</v>
       </c>
       <c r="E50" s="8">
-        <v>42677</v>
+        <v>42678</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>5</v>
@@ -1800,10 +1801,10 @@
     </row>
     <row r="52" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>5</v>
@@ -1817,9 +1818,11 @@
     </row>
     <row r="53" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="7"/>
       <c r="C53" s="7" t="s">
         <v>5</v>
       </c>
@@ -1827,7 +1830,7 @@
         <v>42676</v>
       </c>
       <c r="E53" s="8">
-        <v>42676</v>
+        <v>42677</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -1839,35 +1842,33 @@
         <v>5</v>
       </c>
       <c r="D54" s="8">
-        <v>42670</v>
+        <v>42676</v>
       </c>
       <c r="E54" s="8">
-        <v>42670</v>
+        <v>42676</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="B55" s="7"/>
       <c r="C55" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D55" s="8">
-        <v>42668</v>
+        <v>42670</v>
       </c>
       <c r="E55" s="8">
-        <v>42669</v>
+        <v>42670</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>5</v>
@@ -1881,10 +1882,10 @@
     </row>
     <row r="57" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>5</v>
@@ -1893,15 +1894,15 @@
         <v>42668</v>
       </c>
       <c r="E57" s="8">
-        <v>42668</v>
+        <v>42669</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>5</v>
@@ -1914,11 +1915,11 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>5</v>
@@ -1935,7 +1936,7 @@
         <v>23</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>5</v>
@@ -1949,10 +1950,10 @@
     </row>
     <row r="61" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>5</v>
@@ -1966,10 +1967,10 @@
     </row>
     <row r="62" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>5</v>
@@ -1983,10 +1984,10 @@
     </row>
     <row r="63" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>5</v>
@@ -1998,12 +1999,12 @@
         <v>42668</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A64" s="19" t="s">
+    <row r="64" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>5</v>
@@ -2015,12 +2016,12 @@
         <v>42668</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
+    <row r="65" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A65" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>5</v>
@@ -2034,10 +2035,10 @@
     </row>
     <row r="66" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>5</v>
@@ -2051,10 +2052,10 @@
     </row>
     <row r="67" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>5</v>
@@ -2066,12 +2067,12 @@
         <v>42668</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A68" s="18" t="s">
+    <row r="68" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>8</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>5</v>
@@ -2083,12 +2084,12 @@
         <v>42668</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
-        <v>7</v>
+    <row r="69" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A69" s="18" t="s">
+        <v>128</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>5</v>
@@ -2100,20 +2101,70 @@
         <v>42668</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>125</v>
-      </c>
+    <row r="70" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A70" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="8">
+        <v>42668</v>
+      </c>
+      <c r="E70" s="8">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A71" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D71" s="8">
+        <v>42677</v>
+      </c>
+      <c r="E71" s="8">
+        <v>42692</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A72" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D72" s="8">
+        <v>42677</v>
+      </c>
+      <c r="E72" s="8">
+        <v>42692</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A73" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D73" s="8">
+        <v>42692</v>
+      </c>
+      <c r="E73" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E69">
-    <sortState ref="A2:E70">
-      <sortCondition sortBy="cellColor" ref="A1:A69" dxfId="1"/>
+    <sortState ref="A2:E73">
+      <sortCondition ref="C1:C69"/>
     </sortState>
   </autoFilter>
   <sortState ref="A2:E57">
@@ -2130,7 +2181,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:A45"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2143,32 +2194,32 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="8">
         <v>42668</v>
@@ -2183,7 +2234,7 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="8">
         <v>42677</v>
@@ -2198,7 +2249,7 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="8">
         <v>42678</v>
@@ -2209,11 +2260,11 @@
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="8">
         <v>42678</v>
@@ -2224,11 +2275,11 @@
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="8">
         <v>42683</v>
@@ -2239,11 +2290,11 @@
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="8">
         <v>42675</v>
@@ -2254,11 +2305,11 @@
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="8">
         <v>42676</v>
@@ -2269,11 +2320,11 @@
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="8">
         <v>42677</v>
@@ -2284,11 +2335,11 @@
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="8">
         <v>42676</v>
@@ -2299,11 +2350,11 @@
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="8">
         <v>42677</v>
@@ -2314,11 +2365,11 @@
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="8">
         <v>42677</v>
@@ -2329,11 +2380,11 @@
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="8">
         <v>42677</v>
@@ -2344,7 +2395,7 @@
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -2355,7 +2406,7 @@
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -2366,13 +2417,13 @@
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" s="8">
         <v>42668</v>
@@ -2383,13 +2434,13 @@
     </row>
     <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D17" s="8">
         <v>42670</v>
@@ -2398,11 +2449,11 @@
     </row>
     <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D18" s="8">
         <v>42677</v>
@@ -2411,7 +2462,7 @@
     </row>
     <row r="19" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -2420,52 +2471,52 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>115</v>
+      <c r="A41" s="22" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E17">
     <sortState ref="A2:E19">
-      <sortCondition sortBy="cellColor" ref="A1:A17" dxfId="2"/>
+      <sortCondition sortBy="cellColor" ref="A1:A17" dxfId="0"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/系统/系统问题.xlsx
+++ b/系统/系统问题.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10884" yWindow="-12" windowWidth="10932" windowHeight="10104"/>
+    <workbookView xWindow="10884" yWindow="-12" windowWidth="10932" windowHeight="10104" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="问题-任务" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="特殊项目处理" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$E$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$E$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'问题-任务'!$A$1:$E$69</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="166">
   <si>
     <t>保证金退回申请页面，收款人要可以修改，收款开户行取客户银行信息的开会行全称</t>
   </si>
@@ -241,10 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>同煤金庄二期的还款表没有起租日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等待刘芳审核</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,10 +251,6 @@
   </si>
   <si>
     <t>观察项目进展</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>漯河水务 截至2016-10-12 正在做提前结清</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -542,6 +535,151 @@
   </si>
   <si>
     <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目所在地字段维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出差的表单中没有时间显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整OA流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决打印功能bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同煤金庄二期的还款表没有起租日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OVER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漯河水务 截至2016-10-12 正在做提前结清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部请示单打印出来有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一人多岗发起流程审批的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改支付表编号的表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计系统有多少支付表是导入的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少支付表编号的项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州燃气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种便于工作的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少起租日的项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂电冶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哪些支付表不能用系统导出的，单独做一套菜单自己用
+系统管理员专用菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试系统的调息功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同煤二期</t>
+  </si>
+  <si>
+    <t>凤城医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他方投放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我司投放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个项目的资金投放情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计建行在我司的投放总额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同煤一期</t>
+  </si>
+  <si>
+    <t>安德固</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个项目用的资金方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潞安集团二期租金支付通知书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潞安集团二期12月份开始还款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舞阳钢铁项目（新宽厚）</t>
+  </si>
+  <si>
+    <t>漯河水务</t>
+  </si>
+  <si>
+    <t>兆丰一期需要做支付表变更
+遇节假日处理方式需要调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余吾，容海调息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舞阳钢铁项目（舞钢）</t>
+  </si>
+  <si>
+    <t>长春城开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付通知书不能从系统导出的项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应结束没结束项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,7 +687,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -588,8 +726,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -623,6 +770,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,7 +818,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -718,6 +871,20 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1029,11 +1196,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="255.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1048,28 +1215,28 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D2" s="8">
         <v>42688</v>
@@ -1078,11 +1245,11 @@
     </row>
     <row r="3" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D3" s="8">
         <v>42688</v>
@@ -1091,11 +1258,11 @@
     </row>
     <row r="4" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D4" s="8">
         <v>42688</v>
@@ -1104,11 +1271,11 @@
     </row>
     <row r="5" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D5" s="8">
         <v>42683</v>
@@ -1117,11 +1284,11 @@
     </row>
     <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D6" s="8">
         <v>42683</v>
@@ -1130,11 +1297,11 @@
     </row>
     <row r="7" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D7" s="8">
         <v>42683</v>
@@ -1143,11 +1310,11 @@
     </row>
     <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D8" s="8">
         <v>42683</v>
@@ -1156,11 +1323,11 @@
     </row>
     <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D9" s="8">
         <v>42692</v>
@@ -1169,11 +1336,11 @@
     </row>
     <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D10" s="8">
         <v>42692</v>
@@ -1182,11 +1349,11 @@
     </row>
     <row r="11" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D11" s="8">
         <v>42695</v>
@@ -1195,11 +1362,11 @@
     </row>
     <row r="12" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D12" s="8">
         <v>42695</v>
@@ -1208,11 +1375,11 @@
     </row>
     <row r="13" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D13" s="8">
         <v>42692</v>
@@ -1221,11 +1388,11 @@
     </row>
     <row r="14" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D14" s="8">
         <v>42692</v>
@@ -1234,11 +1401,11 @@
     </row>
     <row r="15" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D15" s="8">
         <v>42692</v>
@@ -1247,11 +1414,11 @@
     </row>
     <row r="16" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D16" s="8">
         <v>42683</v>
@@ -1260,11 +1427,11 @@
     </row>
     <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D17" s="8">
         <v>42683</v>
@@ -1273,11 +1440,11 @@
     </row>
     <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D18" s="8">
         <v>42672</v>
@@ -1286,11 +1453,11 @@
     </row>
     <row r="19" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8">
         <v>42677</v>
@@ -1298,26 +1465,28 @@
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>56</v>
+      <c r="A20" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="D20" s="8">
         <v>42669</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="8">
+        <v>42697</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>54</v>
@@ -1328,26 +1497,28 @@
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>135</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="D22" s="8">
         <v>42668</v>
       </c>
-      <c r="E22" s="7"/>
+      <c r="E22" s="8">
+        <v>42697</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>54</v>
@@ -1410,7 +1581,7 @@
     </row>
     <row r="27" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>48</v>
@@ -1442,11 +1613,11 @@
     </row>
     <row r="29" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D29" s="8">
         <v>42683</v>
@@ -1461,7 +1632,7 @@
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D30" s="8">
         <v>42677</v>
@@ -1472,11 +1643,11 @@
     </row>
     <row r="31" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D31" s="8">
         <v>42677</v>
@@ -1487,13 +1658,13 @@
     </row>
     <row r="32" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D32" s="8">
         <v>42670</v>
@@ -1504,10 +1675,10 @@
     </row>
     <row r="33" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>5</v>
@@ -1525,7 +1696,7 @@
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8">
         <v>42668</v>
@@ -1540,7 +1711,7 @@
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8">
         <v>42678</v>
@@ -1551,11 +1722,11 @@
     </row>
     <row r="36" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8">
         <v>42678</v>
@@ -1570,7 +1741,7 @@
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8">
         <v>42677</v>
@@ -1585,7 +1756,7 @@
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8">
         <v>42677</v>
@@ -1596,11 +1767,11 @@
     </row>
     <row r="39" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D39" s="8">
         <v>42676</v>
@@ -1611,11 +1782,11 @@
     </row>
     <row r="40" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D40" s="8">
         <v>42676</v>
@@ -1626,11 +1797,11 @@
     </row>
     <row r="41" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D41" s="8">
         <v>42675</v>
@@ -1641,11 +1812,11 @@
     </row>
     <row r="42" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D42" s="8">
         <v>42683</v>
@@ -1656,11 +1827,11 @@
     </row>
     <row r="43" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D43" s="8">
         <v>42677</v>
@@ -1671,10 +1842,10 @@
     </row>
     <row r="44" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>5</v>
@@ -1688,11 +1859,11 @@
     </row>
     <row r="45" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D45" s="8">
         <v>42681</v>
@@ -1703,11 +1874,11 @@
     </row>
     <row r="46" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D46" s="8">
         <v>42677</v>
@@ -2086,7 +2257,7 @@
     </row>
     <row r="69" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>8</v>
@@ -2120,11 +2291,11 @@
     </row>
     <row r="71" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D71" s="8">
         <v>42677</v>
@@ -2135,11 +2306,11 @@
     </row>
     <row r="72" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D72" s="8">
         <v>42677</v>
@@ -2150,16 +2321,36 @@
     </row>
     <row r="73" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A73" s="24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D73" s="8">
         <v>42692</v>
       </c>
       <c r="E73" s="7"/>
+    </row>
+    <row r="74" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A74" s="25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E69">
@@ -2178,10 +2369,145 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5546875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="33" style="15" customWidth="1"/>
+    <col min="3" max="3" width="27" style="5" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="5"/>
+    <col min="6" max="6" width="27.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F8" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F9" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2194,32 +2520,32 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D2" s="8">
         <v>42668</v>
@@ -2234,7 +2560,7 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D3" s="8">
         <v>42677</v>
@@ -2249,7 +2575,7 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D4" s="8">
         <v>42678</v>
@@ -2260,11 +2586,11 @@
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D5" s="8">
         <v>42678</v>
@@ -2275,11 +2601,11 @@
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D6" s="8">
         <v>42683</v>
@@ -2290,11 +2616,11 @@
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D7" s="8">
         <v>42675</v>
@@ -2305,11 +2631,11 @@
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D8" s="8">
         <v>42676</v>
@@ -2320,11 +2646,11 @@
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D9" s="8">
         <v>42677</v>
@@ -2335,11 +2661,11 @@
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D10" s="8">
         <v>42676</v>
@@ -2350,11 +2676,11 @@
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D11" s="8">
         <v>42677</v>
@@ -2365,11 +2691,11 @@
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D12" s="8">
         <v>42677</v>
@@ -2380,11 +2706,11 @@
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D13" s="8">
         <v>42677</v>
@@ -2395,7 +2721,7 @@
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -2406,7 +2732,7 @@
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -2417,13 +2743,13 @@
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D16" s="8">
         <v>42668</v>
@@ -2434,13 +2760,13 @@
     </row>
     <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D17" s="8">
         <v>42670</v>
@@ -2449,11 +2775,11 @@
     </row>
     <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D18" s="8">
         <v>42677</v>
@@ -2471,42 +2797,42 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/系统/系统问题.xlsx
+++ b/系统/系统问题.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="168">
   <si>
     <t>保证金退回申请页面，收款人要可以修改，收款开户行取客户银行信息的开会行全称</t>
   </si>
@@ -680,6 +680,15 @@
   </si>
   <si>
     <t>应结束没结束项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同的业务类型对应哪些资料
+都由谁来提供</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租前租后工作对接规范</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2369,10 +2378,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2493,6 +2502,16 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F9" s="5" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="F10" s="27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F11" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/系统/系统问题.xlsx
+++ b/系统/系统问题.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10884" yWindow="-12" windowWidth="10932" windowHeight="10104" activeTab="1"/>
+    <workbookView xWindow="10884" yWindow="-12" windowWidth="10932" windowHeight="10104"/>
   </bookViews>
   <sheets>
     <sheet name="问题-任务" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="170">
   <si>
     <t>保证金退回申请页面，收款人要可以修改，收款开户行取客户银行信息的开会行全称</t>
   </si>
@@ -689,6 +689,14 @@
   </si>
   <si>
     <t>租前租后工作对接规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潞安集团二期放款后做合同签订日期的维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出差获取不到部门信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -827,7 +835,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -894,6 +902,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1207,9 +1219,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="255.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1240,7 +1252,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="31" t="s">
         <v>106</v>
       </c>
       <c r="B2" s="7"/>
@@ -1253,7 +1265,7 @@
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="31" t="s">
         <v>108</v>
       </c>
       <c r="B3" s="7"/>
@@ -1266,7 +1278,7 @@
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="31" t="s">
         <v>109</v>
       </c>
       <c r="B4" s="7"/>
@@ -1279,7 +1291,7 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="32" t="s">
         <v>95</v>
       </c>
       <c r="B5" s="7"/>
@@ -1292,7 +1304,7 @@
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="32" t="s">
         <v>96</v>
       </c>
       <c r="B6" s="7"/>
@@ -1305,7 +1317,7 @@
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="32" t="s">
         <v>97</v>
       </c>
       <c r="B7" s="7"/>
@@ -1318,7 +1330,7 @@
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="32" t="s">
         <v>98</v>
       </c>
       <c r="B8" s="7"/>
@@ -1331,7 +1343,7 @@
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="32" t="s">
         <v>111</v>
       </c>
       <c r="B9" s="7"/>
@@ -1344,7 +1356,7 @@
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="31" t="s">
         <v>122</v>
       </c>
       <c r="B10" s="7"/>
@@ -1357,7 +1369,7 @@
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="31" t="s">
         <v>113</v>
       </c>
       <c r="B11" s="7"/>
@@ -1370,7 +1382,7 @@
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="31" t="s">
         <v>114</v>
       </c>
       <c r="B12" s="7"/>
@@ -1448,7 +1460,7 @@
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="31" t="s">
         <v>69</v>
       </c>
       <c r="B18" s="7"/>
@@ -1474,28 +1486,26 @@
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>133</v>
+      <c r="A20" s="31" t="s">
+        <v>60</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="D20" s="8">
-        <v>42669</v>
-      </c>
-      <c r="E20" s="8">
-        <v>42697</v>
-      </c>
+        <v>42668</v>
+      </c>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>54</v>
@@ -1506,119 +1516,121 @@
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>135</v>
+      <c r="A22" s="31" t="s">
+        <v>53</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="D22" s="8">
-        <v>42668</v>
+        <v>42671</v>
       </c>
       <c r="E22" s="8">
-        <v>42697</v>
+        <v>42675</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>57</v>
+      <c r="A23" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D23" s="8">
-        <v>42668</v>
-      </c>
-      <c r="E23" s="7"/>
+        <v>42670</v>
+      </c>
+      <c r="E23" s="8">
+        <v>42675</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>53</v>
+      <c r="A24" s="31" t="s">
+        <v>52</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D24" s="8">
-        <v>42671</v>
+        <v>42668</v>
       </c>
       <c r="E24" s="8">
         <v>42675</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
-        <v>50</v>
+      <c r="A25" s="31" t="s">
+        <v>84</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>44</v>
       </c>
       <c r="D25" s="8">
-        <v>42670</v>
+        <v>42668</v>
       </c>
       <c r="E25" s="8">
-        <v>42675</v>
+        <v>42668</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
-        <v>52</v>
+      <c r="A26" s="31" t="s">
+        <v>47</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D26" s="8">
         <v>42668</v>
       </c>
-      <c r="E26" s="8">
-        <v>42675</v>
-      </c>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>84</v>
+      <c r="A27" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="D27" s="8">
-        <v>42668</v>
+        <v>42669</v>
       </c>
       <c r="E27" s="8">
-        <v>42668</v>
+        <v>42697</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>47</v>
+      <c r="A28" s="12" t="s">
+        <v>135</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="D28" s="8">
         <v>42668</v>
       </c>
-      <c r="E28" s="7"/>
+      <c r="E28" s="8">
+        <v>42697</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
@@ -2363,7 +2375,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E69">
-    <sortState ref="A2:E73">
+    <sortState ref="A2:E77">
       <sortCondition ref="C1:C69"/>
     </sortState>
   </autoFilter>
@@ -2378,10 +2390,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2390,7 +2402,7 @@
     <col min="2" max="2" width="33" style="15" customWidth="1"/>
     <col min="3" max="3" width="27" style="5" customWidth="1"/>
     <col min="4" max="5" width="8.88671875" style="5"/>
-    <col min="6" max="6" width="27.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="53.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="5"/>
@@ -2512,6 +2524,16 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F11" s="5" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F12" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="5" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
